--- a/medicine/Enfance/Tonke_Dragt/Tonke_Dragt.xlsx
+++ b/medicine/Enfance/Tonke_Dragt/Tonke_Dragt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tonke Dragt, née Antonia Johanna Willemina Dragt le 12 novembre 1930 à Batavia, est une auteure néerlandaise de livres pour enfants.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tonke Dragt fut internée avec sa mère et ses sœurs à Tjideng[1], un camp d'internement japonais pour les femmes et les enfants pendant la Seconde Guerre mondiale, à Batavia (Indes Néerlandaises), l'actuelle Jakarta. C'est là qu'elle commença à écrire. Après la guerre, elle vint aux Pays-Bas et étudia aux beaux-arts avant de devenir professeure de dessin. Elle réside actuellement à La Haye.
-Elle est l'auteure sélectionnée pour représenter son pays, pour le prix international, le Prix Hans-Christian-Andersen en 2012 et en 2022, dans la catégorie Écriture[2].
-En 2022 et 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tonke Dragt fut internée avec sa mère et ses sœurs à Tjideng, un camp d'internement japonais pour les femmes et les enfants pendant la Seconde Guerre mondiale, à Batavia (Indes Néerlandaises), l'actuelle Jakarta. C'est là qu'elle commença à écrire. Après la guerre, elle vint aux Pays-Bas et étudia aux beaux-arts avant de devenir professeure de dessin. Elle réside actuellement à La Haye.
+Elle est l'auteure sélectionnée pour représenter son pays, pour le prix international, le Prix Hans-Christian-Andersen en 2012 et en 2022, dans la catégorie Écriture.
+En 2022 et 2023, elle est sélectionnée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1963 : Kinderboek van het Jaar (nl), ancêtre du prix Gouden Griffel
 2004 : Griffel der Griffels
-2012 et 2022 :  Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture[2]
-2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[3]</t>
+2012 et 2022 :  Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Écriture
+2022 et 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -579,8 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série L'Écuyer du roi
-Le Messager du chevalier noir, Calligram, 2006 ((de) De brief voor de koning, 1962), trad. Monique Nagielkopf, 404 p.  (ISBN 2-88480-251-7)Réédition sous le titre L'Écuyer du roi, Gallimard Jeunesse, 2020, trad. Mireille Cohendy, 520 p.  (ISBN 978-2-07-512983-1)
+          <t>Série L'Écuyer du roi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Messager du chevalier noir, Calligram, 2006 ((de) De brief voor de koning, 1962), trad. Monique Nagielkopf, 404 p.  (ISBN 2-88480-251-7)Réédition sous le titre L'Écuyer du roi, Gallimard Jeunesse, 2020, trad. Mireille Cohendy, 520 p.  (ISBN 978-2-07-512983-1)
 Les Secrets de la Forêt sauvage, Gallimard Jeunesse, 2022 ((de) Geheimen van het Wilde Woud, 1965), trad. Mireille Cohendy, 560 p.  (ISBN 978-2-07-512988-6)</t>
         </is>
       </c>
@@ -609,7 +630,9 @@
           <t>Adaptations de ses œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2008 : Les Chevaliers du Roi de Pieter Verhoeff.
 2020 : L'Écuyer du roi sur Netflix</t>
